--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail3 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>3.972619642466309e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8193498837646522</v>
+        <v>1.989749305033944e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.2752164645535338</v>
+        <v>3.888317749961922e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.989749305033944e-06</v>
+        <v>0.04064708311580293</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.888317749961922e-06</v>
+        <v>0.2447510507234555</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04064708311580293</v>
+        <v>0.06144710932571892</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2447510507234555</v>
+        <v>1.896768796093075</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06144710932571892</v>
+        <v>2.192878299432557</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.913354049576679</v>
+        <v>4.246323488527405</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.192878299432557</v>
+        <v>3.483164115877905e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.246323488527405</v>
+        <v>672298032.3902874</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.483164115877905e-16</v>
+        <v>1.781888803997426e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>672298032.3902874</v>
+        <v>157.4336694148141</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.781888803997426e-07</v>
+        <v>0.0001294414694642837</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>157.4336694148141</v>
+        <v>8.535558140859752</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001294414694642837</v>
+        <v>1.252994473439075</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.535558140859752</v>
+        <v>0.009430555698251644</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.252994473439075</v>
+        <v>3.247453761355637</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009430555698251644</v>
+        <v>0.9623299479955713</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.247453761355637</v>
+        <v>1.352099065019521</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9623299479955713</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.352099065019521</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5874476126790524</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>3.674296494961665e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4518884410790376</v>
+        <v>1.538383147930402e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.065874351866944</v>
+        <v>3.900351844779371e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.538383147930402e-06</v>
+        <v>0.02263044852862279</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.900351844779371e-06</v>
+        <v>0.2147663351667931</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02263044852862279</v>
+        <v>0.04656213389759692</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2147663351667931</v>
+        <v>1.89830782938556</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04656213389759692</v>
+        <v>2.474292203068134</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.917102214115751</v>
+        <v>4.205632626761215</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.474292203068134</v>
+        <v>3.550891670017883e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.205632626761215</v>
+        <v>654305993.656602</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.550891670017883e-16</v>
+        <v>1.834158017928318e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>654305993.656602</v>
+        <v>152.0194721837685</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.834158017928318e-07</v>
+        <v>0.0001337511002977896</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>152.0194721837685</v>
+        <v>9.181464424604211</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001337511002977896</v>
+        <v>1.22328710467888</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.181464424604211</v>
+        <v>0.01127512265543281</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.22328710467888</v>
+        <v>3.024220551110433</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01127512265543281</v>
+        <v>0.9621201619582707</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.024220551110433</v>
+        <v>1.362744316959775</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9621201619582707</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.362744316959775</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4543690099764685</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>3.565268537253706e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3336693918786628</v>
+        <v>1.188099944562175e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.411808858874991</v>
+        <v>3.905458667740842e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.188099944562175e-06</v>
+        <v>0.006057719054825703</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.905458667740842e-06</v>
+        <v>0.1826391252417743</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.006057719054825703</v>
+        <v>0.03334306070955997</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1826391252417743</v>
+        <v>1.896330213572307</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03334306070955997</v>
+        <v>2.33537649493736</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.916211554888472</v>
+        <v>4.155831056316564</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.33537649493736</v>
+        <v>3.636506106115144e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.155831056316564</v>
+        <v>659107412.9484627</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.636506106115144e-16</v>
+        <v>1.819206185746239e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>659107412.9484627</v>
+        <v>157.9780371363153</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.819206185746239e-07</v>
+        <v>0.000134803644385109</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>157.9780371363153</v>
+        <v>9.218745350925435</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000134803644385109</v>
+        <v>1.212834277201829</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.218745350925435</v>
+        <v>0.01145632355497155</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.212834277201829</v>
+        <v>2.940271326759545</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01145632355497155</v>
+        <v>0.962443821989263</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.940271326759545</v>
+        <v>1.345965855423653</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.962443821989263</v>
+        <v>34</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.345965855423653</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4206421336732782</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>3.571754903348355e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3348560820039281</v>
+        <v>1.078281364786461e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.414142951057293</v>
+        <v>3.904962715977745e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.078281364786461e-06</v>
+        <v>-0.008378625595371596</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.904962715977745e-06</v>
+        <v>0.1489880433195341</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.008378625595371596</v>
+        <v>0.02223071055974931</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1489880433195341</v>
+        <v>1.894793642204249</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02223071055974931</v>
+        <v>2.247096598730614</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.911076147206618</v>
+        <v>4.171335444112194</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.247096598730614</v>
+        <v>3.609523371584624e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.171335444112194</v>
+        <v>649191309.9406732</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.609523371584624e-16</v>
+        <v>1.845054681220462e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>649191309.9406732</v>
+        <v>152.1231303678838</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.845054681220462e-07</v>
+        <v>0.0001294376822799776</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>152.1231303678838</v>
+        <v>8.097134457171197</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001294376822799776</v>
+        <v>1.241667964452337</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.097134457171197</v>
+        <v>0.008486398667845403</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.241667964452337</v>
+        <v>3.150399761210996</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008486398667845403</v>
+        <v>0.9612119267254736</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.150399761210996</v>
+        <v>1.337042942324736</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9612119267254736</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.337042942324736</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4305687926771556</v>
       </c>
     </row>
@@ -4032,72 +3996,66 @@
         <v>3.640059536737814e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3497417293688271</v>
+        <v>1.096281975464891e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.406999607422495</v>
+        <v>3.8997234194615e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.096281975464891e-06</v>
+        <v>-0.01999659293442056</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.8997234194615e-06</v>
+        <v>0.1176495875786494</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01999659293442056</v>
+        <v>0.01422017996293671</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1176495875786494</v>
+        <v>1.904562521757344</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01422017996293671</v>
+        <v>2.214599652510036</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.908170065901614</v>
+        <v>4.215321337745558</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.214599652510036</v>
+        <v>3.534587325501184e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.215321337745558</v>
+        <v>630713766.4366344</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.534587325501184e-16</v>
+        <v>1.904501748576994e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>630713766.4366344</v>
+        <v>140.6058326179581</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.904501748576994e-07</v>
+        <v>0.0001399733154076572</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>140.6058326179581</v>
+        <v>7.531185209645259</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001399733154076572</v>
+        <v>1.746417639591473</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.531185209645259</v>
+        <v>0.007939111575937524</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.746417639591473</v>
+        <v>3.288290068339197</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007939111575937524</v>
+        <v>0.9610946936083666</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.288290068339197</v>
+        <v>1.376003023589594</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9610946936083666</v>
+        <v>36</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.376003023589594</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4419193939942415</v>
       </c>
     </row>
@@ -4112,72 +4070,66 @@
         <v>3.731304592169062e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.339979618862513</v>
+        <v>1.113294801784105e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.439668312728371</v>
+        <v>3.890709483671715e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.113294801784105e-06</v>
+        <v>-0.02841187553346409</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.890709483671715e-06</v>
+        <v>0.09370423961828962</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02841187553346409</v>
+        <v>0.009575210853869866</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09370423961828962</v>
+        <v>1.908355863687439</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009575210853869866</v>
+        <v>2.205603047381719</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.910684011477164</v>
+        <v>4.272541196346028</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.205603047381719</v>
+        <v>3.440547608068922e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.272541196346028</v>
+        <v>640780711.982848</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.440547608068922e-16</v>
+        <v>1.880637168794419e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>640780711.982848</v>
+        <v>141.2688575551161</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.880637168794419e-07</v>
+        <v>0.0001346328120285605</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>141.2688575551161</v>
+        <v>8.299232917380355</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001346328120285605</v>
+        <v>1.374355999996071</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.299232917380355</v>
+        <v>0.009273140143331256</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.374355999996071</v>
+        <v>3.23902647566752</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009273140143331256</v>
+        <v>0.9601823783976521</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.23902647566752</v>
+        <v>1.405717477298865</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9601823783976521</v>
+        <v>36</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.405717477298865</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4301187139104324</v>
       </c>
     </row>
@@ -4192,72 +4144,66 @@
         <v>3.82373472977757e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3069428818996046</v>
+        <v>1.129296841432983e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.483353111313214</v>
+        <v>3.878709144766827e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.129296841432983e-06</v>
+        <v>-0.03459706159099583</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.878709144766827e-06</v>
+        <v>0.07513515515088151</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03459706159099583</v>
+        <v>0.006836670284117921</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07513515515088151</v>
+        <v>1.900854678869558</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.006836670284117921</v>
+        <v>2.186156859863911</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.900898351071968</v>
+        <v>4.342004992979389</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.186156859863911</v>
+        <v>3.331343781860953e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.342004992979389</v>
+        <v>621068074.6671624</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.331343781860953e-16</v>
+        <v>1.928703494211883e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>621068074.6671624</v>
+        <v>128.498442372661</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.928703494211883e-07</v>
+        <v>0.0001354488199550215</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>128.498442372661</v>
+        <v>9.579805839177819</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001354488199550215</v>
+        <v>1.168236761319873</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.579805839177819</v>
+        <v>0.01243050119877889</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.168236761319873</v>
+        <v>2.991918075134976</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01243050119877889</v>
+        <v>0.959607442014368</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.991918075134976</v>
+        <v>1.409438886379036</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.959607442014368</v>
+        <v>47</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.409438886379036</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4006989035426552</v>
       </c>
     </row>
@@ -4272,72 +4218,66 @@
         <v>3.907498344858082e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.261502522067368</v>
+        <v>1.14574248055606e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.518964319371167</v>
+        <v>3.864461353923644e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.14574248055606e-06</v>
+        <v>-0.03888484947225315</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.864461353923644e-06</v>
+        <v>0.06277847796154576</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03888484947225315</v>
+        <v>0.005449758852393279</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06277847796154576</v>
+        <v>1.898064445342101</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.005449758852393279</v>
+        <v>2.30208616756926</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.905249875127503</v>
+        <v>4.330363292668295</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.30208616756926</v>
+        <v>3.349279753762114e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.330363292668295</v>
+        <v>604230564.3050724</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.349279753762114e-16</v>
+        <v>1.978019738839301e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>604230564.3050724</v>
+        <v>122.2803867721426</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.978019738839301e-07</v>
+        <v>0.0001356467658976277</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>122.2803867721426</v>
+        <v>9.352737845994525</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001356467658976277</v>
+        <v>1.171409301481325</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.352737845994525</v>
+        <v>0.01186552521361906</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.171409301481325</v>
+        <v>2.973221182769564</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01186552521361906</v>
+        <v>0.9598556495760495</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.973221182769564</v>
+        <v>1.418542126251228</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9598556495760495</v>
+        <v>47</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.418542126251228</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3859008946540258</v>
       </c>
     </row>
@@ -4352,72 +4292,66 @@
         <v>3.978991566596531e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2115532464668022</v>
+        <v>1.162519446746955e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.541807390280697</v>
+        <v>3.848445186706973e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.162519446746955e-06</v>
+        <v>-0.04206773360626848</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.848445186706973e-06</v>
+        <v>0.05388619357408646</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04206773360626848</v>
+        <v>0.004672080225983131</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05388619357408646</v>
+        <v>1.893827873806339</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004672080225983131</v>
+        <v>2.269619228759164</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.905071971574538</v>
+        <v>4.343054702973046</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.269619228759164</v>
+        <v>3.329733614595737e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.343054702973046</v>
+        <v>608460957.8129749</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.329733614595737e-16</v>
+        <v>1.959219438551851e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>608460957.8129749</v>
+        <v>123.2749752352051</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.959219438551851e-07</v>
+        <v>0.0001329644139937853</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>123.2749752352051</v>
+        <v>8.503010051519103</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001329644139937853</v>
+        <v>1.245433577585405</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.503010051519103</v>
+        <v>0.009613484021280701</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.245433577585405</v>
+        <v>3.129548070104772</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009613484021280701</v>
+        <v>0.9594129206751862</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.129548070104772</v>
+        <v>1.421316087742393</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9594129206751862</v>
+        <v>68</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.421316087742393</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4191181860743727</v>
       </c>
     </row>
@@ -4432,72 +4366,66 @@
         <v>4.038657444500155e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1614090535991367</v>
+        <v>1.178753245207141e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.553854328077604</v>
+        <v>3.831176216716658e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.178753245207141e-06</v>
+        <v>-0.04375484839806323</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.831176216716658e-06</v>
+        <v>0.04972054536889851</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04375484839806323</v>
+        <v>0.004386649227352098</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04972054536889851</v>
+        <v>1.89259085354242</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004386649227352098</v>
+        <v>2.146285415321251</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.903458885122777</v>
+        <v>4.447231283624923</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.146285415321251</v>
+        <v>3.175562446879261e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.447231283624923</v>
+        <v>637261890.7686669</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.175562446879261e-16</v>
+        <v>1.871608644850307e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>637261890.7686669</v>
+        <v>128.9604539033805</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.871608644850307e-07</v>
+        <v>0.0001378562374774944</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>128.9604539033805</v>
+        <v>7.833646634466703</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001378562374774944</v>
+        <v>1.686992213349128</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.833646634466703</v>
+        <v>0.00845968857015651</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.686992213349128</v>
+        <v>3.339789993021214</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.00845968857015651</v>
+        <v>0.9609146323410386</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.339789993021214</v>
+        <v>1.40172622476825</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9609146323410386</v>
+        <v>68</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.40172622476825</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5572628028596318</v>
       </c>
     </row>
@@ -4512,72 +4440,66 @@
         <v>4.091025675077475e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1119287723833306</v>
+        <v>1.193822854500328e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.558371498462147</v>
+        <v>3.813327778583067e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.193822854500328e-06</v>
+        <v>-0.04386599428523479</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.813327778583067e-06</v>
+        <v>0.04865398000380778</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04386599428523479</v>
+        <v>0.004291575602059701</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04865398000380778</v>
+        <v>1.898090837943966</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004291575602059701</v>
+        <v>2.057344071587418</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.911498274115384</v>
+        <v>4.731885131760452</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.057344071587418</v>
+        <v>2.804992489304084e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.731885131760452</v>
+        <v>760997382.9201499</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.804992489304084e-16</v>
+        <v>1.571906549520618e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>760997382.9201499</v>
+        <v>162.4418882583932</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.571906549520618e-07</v>
+        <v>0.0001350428864692992</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>162.4418882583932</v>
+        <v>8.203774396849791</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001350428864692992</v>
+        <v>1.871408504680032</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.203774396849791</v>
+        <v>0.009088644779328839</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.871408504680032</v>
+        <v>3.615636918350403</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009088644779328839</v>
+        <v>0.9600427582820132</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.615636918350403</v>
+        <v>1.383594396476015</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9600427582820132</v>
+        <v>68</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.383594396476015</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.9076204175214957</v>
       </c>
     </row>
@@ -4592,72 +4514,66 @@
         <v>4.139766332469601e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.06248150022138965</v>
+        <v>1.207400246644166e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.556982321102042</v>
+        <v>3.795340578361789e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.207400246644166e-06</v>
+        <v>-0.04354652701268529</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.795340578361789e-06</v>
+        <v>0.0480129872093665</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04354652701268529</v>
+        <v>0.004201704898133979</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0480129872093665</v>
+        <v>1.894645100923624</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004201704898133979</v>
+        <v>2.017934164006347</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.911422163754941</v>
+        <v>5.447538719945213</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.017934164006347</v>
+        <v>2.082189584341232e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.447538719945213</v>
+        <v>1024038356.261177</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.082189584341232e-16</v>
+        <v>1.167422317452778e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1024038356.261177</v>
+        <v>218.3497592188911</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.167422317452778e-07</v>
+        <v>0.0001084212278198358</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>218.3497592188911</v>
+        <v>10.198250164126</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001084212278198358</v>
+        <v>1.148351397619768</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.198250164126</v>
+        <v>0.01127627459953302</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.148351397619768</v>
+        <v>3.683616794456534</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01127627459953302</v>
+        <v>0.9605745693020484</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.683616794456534</v>
+        <v>1.426737418371829</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9605745693020484</v>
+        <v>68</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.426737418371829</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.370114578662587</v>
       </c>
     </row>
@@ -4672,72 +4588,66 @@
         <v>4.185223304919131e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.01268240134634159</v>
+        <v>1.218893798683234e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.550152439861737</v>
+        <v>3.777316494919478e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.218893798683234e-06</v>
+        <v>-0.04296385986831341</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.777316494919478e-06</v>
+        <v>0.04750958897373544</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04296385986831341</v>
+        <v>0.004103126174179152</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04750958897373544</v>
+        <v>1.908402247771172</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004103126174179152</v>
+        <v>2.23248142134043</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.941984202914501</v>
+        <v>4.55457903612021</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.23248142134043</v>
+        <v>2.123604685206144e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.55457903612021</v>
+        <v>992372022.4248834</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.123604685206144e-16</v>
+        <v>1.207250935469181e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>992372022.4248834</v>
+        <v>209.1330631522977</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.207250935469181e-07</v>
+        <v>0.0001465534916353225</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>209.1330631522977</v>
+        <v>9.767896236619995</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001465534916353225</v>
+        <v>1.326467096668104</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.767896236619995</v>
+        <v>0.01398293197733812</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.326467096668104</v>
+        <v>3.451270573923424</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01398293197733812</v>
+        <v>0.9606219784528017</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.451270573923424</v>
+        <v>1.189664442710061</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9606219784528017</v>
+        <v>63</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.189664442710061</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.115018615045959</v>
       </c>
     </row>
@@ -4752,72 +4662,66 @@
         <v>4.227942846533098e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.03789421967634398</v>
+        <v>1.227609894159332e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.53845849731824</v>
+        <v>3.759396803544335e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.227609894159332e-06</v>
+        <v>-0.04229809024370747</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.759396803544335e-06</v>
+        <v>0.04708921491157177</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04229809024370747</v>
+        <v>0.004006723460800185</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04708921491157177</v>
+        <v>1.911518573702759</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004006723460800185</v>
+        <v>2.053393338537389</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.945718434065205</v>
+        <v>5.391018749818479</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.053393338537389</v>
+        <v>2.001477308437097e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.391018749818479</v>
+        <v>1066495317.853501</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.001477308437097e-16</v>
+        <v>1.125612425655419e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1066495317.853501</v>
+        <v>227.650483473947</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.125612425655419e-07</v>
+        <v>0.0001690916947272518</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>227.650483473947</v>
+        <v>10.1268713034933</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001690916947272518</v>
+        <v>1.300486339735213</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.1268713034933</v>
+        <v>0.01734094890244518</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.300486339735213</v>
+        <v>3.247018302772002</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01734094890244518</v>
+        <v>0.9603881040039677</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.247018302772002</v>
+        <v>1.180556397696921</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9603881040039677</v>
+        <v>63</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.180556397696921</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.06134134633093</v>
       </c>
     </row>
@@ -4832,72 +4736,66 @@
         <v>4.265290244084037e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.08954983198827861</v>
+        <v>1.232826110989559e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.521253081006069</v>
+        <v>3.741440375265671e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.232826110989559e-06</v>
+        <v>-0.04241599744863364</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.741440375265671e-06</v>
+        <v>0.0461430821014493</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04241599744863364</v>
+        <v>0.003928357565663661</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0461430821014493</v>
+        <v>1.90567285523677</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003928357565663661</v>
+        <v>2.075724232030791</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.941390888808876</v>
+        <v>4.925998458403793</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.075724232030791</v>
+        <v>2.080948063440003e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.925998458403793</v>
+        <v>1005223421.810567</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.080948063440003e-16</v>
+        <v>1.191705613001952e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1005223421.810567</v>
+        <v>210.2744179311209</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.191705613001952e-07</v>
+        <v>0.0001513865373883563</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>210.2744179311209</v>
+        <v>11.07044956549538</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001513865373883563</v>
+        <v>1.166579908658357</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.07044956549538</v>
+        <v>0.01855315492394274</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.166579908658357</v>
+        <v>3.376326888039701</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01855315492394274</v>
+        <v>0.9592080290708254</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.376326888039701</v>
+        <v>1.171103533919428</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9592080290708254</v>
+        <v>63</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.171103533919428</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.248329284290457</v>
       </c>
     </row>
@@ -4912,72 +4810,66 @@
         <v>4.292529595621801e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1425248334698486</v>
+        <v>1.233857293563545e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.49703618198603</v>
+        <v>3.723168196640337e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.233857293563545e-06</v>
+        <v>-0.0428421242477028</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.723168196640337e-06</v>
+        <v>0.04488907063867976</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0428421242477028</v>
+        <v>0.003850685328917515</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04488907063867976</v>
+        <v>1.908307847651745</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003850685328917515</v>
+        <v>2.110724995224367</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.936874213238274</v>
+        <v>4.131276409611015</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.110724995224367</v>
+        <v>2.552286409920292e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.131276409611015</v>
+        <v>796073911.4786823</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.552286409920292e-16</v>
+        <v>1.507808515750672e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>796073911.4786823</v>
+        <v>161.7469839924983</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.507808515750672e-07</v>
+        <v>0.0001236104387583144</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>161.7469839924983</v>
+        <v>11.66302376705845</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001236104387583144</v>
+        <v>1.037658938936195</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.66302376705845</v>
+        <v>0.01681424879495047</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.037658938936195</v>
+        <v>3.476060786134715</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01681424879495047</v>
+        <v>0.9585306975742925</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.476060786134715</v>
+        <v>1.151647496418131</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9585306975742925</v>
+        <v>63</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.151647496418131</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.381397474915566</v>
       </c>
     </row>
@@ -4992,72 +4884,66 @@
         <v>4.309765550306277e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1971351733167253</v>
+        <v>1.233857293563545e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.465642220694748</v>
+        <v>3.704741775168097e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.233857293563545e-06</v>
+        <v>-0.04278240129065806</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.704741775168097e-06</v>
+        <v>0.04458276535850875</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04278240129065806</v>
+        <v>0.003818194830177513</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04458276535850875</v>
+        <v>1.871178786646282</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003818194830177513</v>
+        <v>2.116531659451872</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.872515972548926</v>
+        <v>6.017837008117827</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.116531659451872</v>
+        <v>3.511423662143299e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.017837008117827</v>
+        <v>571936426.3561679</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.511423662143299e-16</v>
+        <v>2.082807126077891e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>571936426.3561679</v>
+        <v>114.8626273973648</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.082807126077891e-07</v>
+        <v>0.0001451982512347687</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>114.8626273973648</v>
+        <v>9.586710914178132</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001451982512347687</v>
+        <v>1.448510197318868</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.586710914178132</v>
+        <v>0.01334444907695929</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.448510197318868</v>
+        <v>3.457878450916794</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01334444907695929</v>
+        <v>0.9590371886959828</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.457878450916794</v>
+        <v>1.440538130752421</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9590371886959828</v>
+        <v>64</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.440538130752421</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.001236189052292</v>
       </c>
     </row>
@@ -5072,72 +4958,66 @@
         <v>4.319108245755433e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2531926899031082</v>
+        <v>1.236703186802045e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.426227376398358</v>
+        <v>3.686274880882194e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.236703186802045e-06</v>
+        <v>-0.04286612107085597</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.686274880882194e-06</v>
+        <v>0.04433341035639186</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04286612107085597</v>
+        <v>0.003803177400902267</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04433341035639186</v>
+        <v>1.861907283343486</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003803177400902267</v>
+        <v>2.022002199531396</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.861519639192802</v>
+        <v>4.696360916872882</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.022002199531396</v>
+        <v>6.296744289394021e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.696360916872882</v>
+        <v>302593428.7968271</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.296744289394021e-16</v>
+        <v>3.915555764651077e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>302593428.7968271</v>
+        <v>57.65474319272112</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.915555764651077e-07</v>
+        <v>0.0002053594235762158</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>57.65474319272112</v>
+        <v>8.785401404313239</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002053594235762158</v>
+        <v>1.905295383484531</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.785401404313239</v>
+        <v>0.01585031344589983</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.905295383484531</v>
+        <v>3.073873026205587</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01585031344589983</v>
+        <v>0.9558692808933054</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.073873026205587</v>
+        <v>1.534493511608244</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9558692808933054</v>
+        <v>35</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.534493511608244</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.487561496332544</v>
       </c>
     </row>
@@ -5152,72 +5032,66 @@
         <v>4.321051095227802e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3099991899152451</v>
+        <v>1.244541436884023e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.377491938598497</v>
+        <v>3.667643090248167e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.244541436884023e-06</v>
+        <v>-0.04347397682792135</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.667643090248167e-06</v>
+        <v>0.04367584259963418</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04347397682792135</v>
+        <v>0.003797703256599898</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.04367584259963418</v>
+        <v>1.862700273413832</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003797703256599898</v>
+        <v>2.005218992926262</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.859732663238775</v>
+        <v>4.466920435623283</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.005218992926262</v>
+        <v>6.960213371708108e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.466920435623283</v>
+        <v>279362999.1372666</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.960213371708108e-16</v>
+        <v>4.238406467235206e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>279362999.1372666</v>
+        <v>54.32007019117369</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.238406467235206e-07</v>
+        <v>0.0001576207182777446</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>54.32007019117369</v>
+        <v>9.062532601813841</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001576207182777446</v>
+        <v>1.448025208565838</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.062532601813841</v>
+        <v>0.01294531033398191</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.448025208565838</v>
+        <v>3.063650357946522</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01294531033398191</v>
+        <v>0.9563969125970071</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.063650357946522</v>
+        <v>1.565276231462979</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9563969125970071</v>
+        <v>33</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.565276231462979</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3336413222737374</v>
       </c>
     </row>
@@ -5232,72 +5106,66 @@
         <v>4.313386416684052e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.366801107098154</v>
+        <v>1.253512101560835e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.318544088746904</v>
+        <v>3.648622630241977e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.253512101560835e-06</v>
+        <v>-0.04466925618767666</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.648622630241977e-06</v>
+        <v>0.04227135634558839</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04466925618767666</v>
+        <v>0.00378227891611079</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.04227135634558839</v>
+        <v>1.866851760890071</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.00378227891611079</v>
+        <v>1.993036057953262</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.858117344554729</v>
+        <v>4.447956703399217</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.993036057953262</v>
+        <v>7.01968921763865e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.447956703399217</v>
+        <v>278970301.3648372</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.01968921763865e-16</v>
+        <v>4.25838852457677e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>278970301.3648372</v>
+        <v>54.63033054261593</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.25838852457677e-07</v>
+        <v>0.0001364199178785762</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>54.63033054261593</v>
+        <v>9.457834129000402</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001364199178785762</v>
+        <v>1.170371486824656</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.457834129000402</v>
+        <v>0.01220284710926924</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.170371486824656</v>
+        <v>2.939955332765185</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01220284710926924</v>
+        <v>0.9576329859815035</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.939955332765185</v>
+        <v>1.542405642572493</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9576329859815035</v>
+        <v>56</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.542405642572493</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2870332286969429</v>
       </c>
     </row>
@@ -5312,72 +5180,66 @@
         <v>4.294160980718399e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4229344453742105</v>
+        <v>1.262264007538376e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.249507625673506</v>
+        <v>3.62911242970131e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.262264007538376e-06</v>
+        <v>-0.04592380484295849</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.62911242970131e-06</v>
+        <v>0.04102173145261594</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04592380484295849</v>
+        <v>0.003791972532652717</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04102173145261594</v>
+        <v>1.866077418190437</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003791972532652717</v>
+        <v>1.955999417178911</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.856803309378985</v>
+        <v>4.45607566773151</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.955999417178911</v>
+        <v>6.99413279068428e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.45607566773151</v>
+        <v>279499422.746359</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>6.99413279068428e-16</v>
+        <v>4.248839630823418e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>279499422.746359</v>
+        <v>54.63811452435461</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.248839630823418e-07</v>
+        <v>0.0001345293217912842</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>54.63811452435461</v>
+        <v>9.26540248985496</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001345293217912842</v>
+        <v>1.195501463424618</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.26540248985496</v>
+        <v>0.01154903061156884</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.195501463424618</v>
+        <v>2.845185556447285</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01154903061156884</v>
+        <v>0.9574895556008898</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.845185556447285</v>
+        <v>1.556308330874117</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9574895556008898</v>
+        <v>56</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.556308330874117</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2677520326205995</v>
       </c>
     </row>
@@ -5392,72 +5254,66 @@
         <v>4.264426760020048e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4785468541750443</v>
+        <v>1.269806119599883e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.170561487620802</v>
+        <v>3.609261321769914e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.269806119599883e-06</v>
+        <v>-0.04675150558642632</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.609261321769914e-06</v>
+        <v>0.04074780167296164</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04675150558642632</v>
+        <v>0.003846355792021068</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04074780167296164</v>
+        <v>1.86836855533282</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003846355792021068</v>
+        <v>2.106718275410752</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.860527575818302</v>
+        <v>4.432055397540081</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.106718275410752</v>
+        <v>7.070149987679781e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.432055397540081</v>
+        <v>283456923.3456485</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.070149987679781e-16</v>
+        <v>4.203915179180882e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>283456923.3456485</v>
+        <v>56.80711908497526</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.203915179180882e-07</v>
+        <v>0.0001312842017083302</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>56.80711908497526</v>
+        <v>8.267776595449977</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001312842017083302</v>
+        <v>1.241862167897036</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.267776595449977</v>
+        <v>0.008974079936900593</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.241862167897036</v>
+        <v>3.012017611942693</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008974079936900593</v>
+        <v>0.9586698712350621</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.012017611942693</v>
+        <v>1.550340586492665</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9586698712350621</v>
+        <v>45</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.550340586492665</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.253717524461595</v>
       </c>
     </row>
@@ -5472,72 +5328,66 @@
         <v>4.225845983226367e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.5343782328086325</v>
+        <v>1.274775495074275e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.080934620971651</v>
+        <v>3.589267636379284e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.274775495074275e-06</v>
+        <v>-0.04745209087791041</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.589267636379284e-06</v>
+        <v>0.0408245401443106</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04745209087791041</v>
+        <v>0.003918618984262952</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.0408245401443106</v>
+        <v>1.86557313565979</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003918618984262952</v>
+        <v>2.094857890420387</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.858604274110174</v>
+        <v>4.334455472022936</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.094857890420387</v>
+        <v>7.392135104281634e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.334455472022936</v>
+        <v>270024396.6220711</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.392135104281634e-16</v>
+        <v>4.404834641090308e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>270024396.6220711</v>
+        <v>53.89840387901709</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.404834641090308e-07</v>
+        <v>0.0001469145789676783</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>53.89840387901709</v>
+        <v>7.68497362090692</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001469145789676783</v>
+        <v>1.625874015543492</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.68497362090692</v>
+        <v>0.008676601609109168</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.625874015543492</v>
+        <v>3.0900598248284</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008676601609109168</v>
+        <v>0.9589580800875551</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.0900598248284</v>
+        <v>1.529165665055685</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9589580800875551</v>
+        <v>45</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.529165665055685</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2343598166076886</v>
       </c>
     </row>
@@ -5914,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.275254380042221</v>
+        <v>1.277805162552247</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.891405729698039</v>
@@ -6003,7 +5853,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.283236749537534</v>
+        <v>1.281179153372552</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.868558767332563</v>
@@ -6092,7 +5942,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.285602402514589</v>
+        <v>1.290779410729973</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.087465917847976</v>
@@ -6181,7 +6031,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.306977212343958</v>
+        <v>1.313642367746789</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.943437819371276</v>
@@ -6270,7 +6120,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.299140432589342</v>
+        <v>1.309274957036512</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.896713339683079</v>
@@ -6359,7 +6209,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.307872190976543</v>
+        <v>1.321125647424904</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.01985499271695</v>
@@ -6448,7 +6298,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.325994303117611</v>
+        <v>1.348016030220156</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.986660613034236</v>
@@ -6537,7 +6387,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.337744518083835</v>
+        <v>1.36272657318727</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.851185351839277</v>
@@ -6626,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.353616320782378</v>
+        <v>1.382914168972446</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.866740314759371</v>
@@ -6715,7 +6565,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.345964331206443</v>
+        <v>1.374581301964507</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.848032008489483</v>
@@ -6804,7 +6654,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.302106018461901</v>
+        <v>1.317020307166372</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.903326365207511</v>
@@ -6893,7 +6743,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.281056513969996</v>
+        <v>1.307059862411577</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.901264977404882</v>
@@ -6982,7 +6832,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.285814716065426</v>
+        <v>1.312112697673747</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.909865289979214</v>
@@ -7071,7 +6921,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.278994087056026</v>
+        <v>1.297933078504468</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.937871571012138</v>
@@ -7160,7 +7010,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.261532119593244</v>
+        <v>1.281010681171061</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.878143491935049</v>
@@ -7249,7 +7099,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.275062636735559</v>
+        <v>1.295924720960385</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.930938758141827</v>
@@ -7338,7 +7188,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.31009492014701</v>
+        <v>1.329986649941191</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.751011261655167</v>
@@ -7427,7 +7277,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346507358357027</v>
+        <v>1.371042902311194</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.834119193951701</v>
@@ -7516,7 +7366,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.353871210761505</v>
+        <v>1.374274123990609</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.825164219085243</v>
@@ -7605,7 +7455,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.362321068374842</v>
+        <v>1.383175544172037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.838988068454699</v>
@@ -7694,7 +7544,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.373439484667164</v>
+        <v>1.388839396491769</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.82835597040595</v>
@@ -7783,7 +7633,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.353015745532605</v>
+        <v>1.366492888543982</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.81815380915008</v>
@@ -7872,7 +7722,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.349791402761807</v>
+        <v>1.363924786688569</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.819312217373296</v>
@@ -7961,7 +7811,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.341455774156936</v>
+        <v>1.35392947031826</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.800006359650024</v>
@@ -8050,7 +7900,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.352888387452883</v>
+        <v>1.36011540625598</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.792770568666641</v>
@@ -8139,7 +7989,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.447246943375268</v>
+        <v>1.453591605101479</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.866626628491776</v>
@@ -8228,7 +8078,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.461816077747638</v>
+        <v>1.464534216326856</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.93194313956994</v>
@@ -8317,7 +8167,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.423977311954107</v>
+        <v>1.423666518572576</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.907958693712998</v>
@@ -8406,7 +8256,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.466070080895465</v>
+        <v>1.474981394509601</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.03568306739409</v>
@@ -8495,7 +8345,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.547983073038854</v>
+        <v>1.549361187565261</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.185658553941843</v>
@@ -8584,7 +8434,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.491076129806996</v>
+        <v>1.497264926625797</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.184267214625256</v>
@@ -8673,7 +8523,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.485980712352828</v>
+        <v>1.496976563298048</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.10495566321988</v>
@@ -8762,7 +8612,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486956738753269</v>
+        <v>1.497408718252591</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.126615219870916</v>
@@ -8851,7 +8701,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.496697859718583</v>
+        <v>1.505493164558797</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.222074816231317</v>
@@ -8940,7 +8790,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.497925581562067</v>
+        <v>1.510363581592672</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.177829830875122</v>
@@ -9029,7 +8879,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.495281400958604</v>
+        <v>1.505536207530282</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.215304667086174</v>
@@ -9118,7 +8968,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526826724812965</v>
+        <v>1.525864228397212</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.12433933738093</v>
@@ -9207,7 +9057,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.449197028269291</v>
+        <v>1.458794160000952</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.204390239103722</v>
@@ -9296,7 +9146,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.460300379385767</v>
+        <v>1.475756155015471</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.185082849436591</v>
@@ -9385,7 +9235,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.461501033881556</v>
+        <v>1.478798508366165</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.155212269622766</v>
@@ -9474,7 +9324,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.42988180994932</v>
+        <v>1.437916473778526</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.220465569728321</v>
@@ -9563,7 +9413,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.405789687223958</v>
+        <v>1.422906266502739</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.21780834123264</v>
@@ -9652,7 +9502,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45016214386775</v>
+        <v>1.462821571232147</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.050117088538746</v>
@@ -9741,7 +9591,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455671460307187</v>
+        <v>1.464733709323476</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.235224229066529</v>
@@ -9830,7 +9680,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.457302497103333</v>
+        <v>1.469689507780628</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.252713272178629</v>
@@ -9919,7 +9769,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.498244908903932</v>
+        <v>1.507213245961048</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.275696078883663</v>
@@ -10008,7 +9858,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.495212667120206</v>
+        <v>1.50341995803813</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.347968858444461</v>
@@ -10097,7 +9947,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.495001333422245</v>
+        <v>1.503354734214958</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.355658505875279</v>
@@ -10186,7 +10036,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.501042500367391</v>
+        <v>1.505633001308787</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.284631025987537</v>
@@ -10275,7 +10125,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.497056657097144</v>
+        <v>1.497704703844432</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.291338343243173</v>
@@ -10364,7 +10214,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.458057994206578</v>
+        <v>1.464610201106241</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.27031333204519</v>
@@ -10453,7 +10303,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.432732927994555</v>
+        <v>1.438226407606167</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.037261797065156</v>
@@ -10542,7 +10392,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.477067455897493</v>
+        <v>1.48093962608337</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.136358504503401</v>
@@ -10631,7 +10481,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.469482054049812</v>
+        <v>1.470326878516153</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.188754715538988</v>
@@ -10720,7 +10570,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.466876764199603</v>
+        <v>1.466454865040198</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.144751178365657</v>
@@ -10809,7 +10659,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.521252823627336</v>
+        <v>1.515184335913406</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.959054730103422</v>
@@ -10898,7 +10748,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.54653040448098</v>
+        <v>1.536677531610394</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.059531341562346</v>
@@ -10987,7 +10837,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546640614950721</v>
+        <v>1.541136346414928</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.071561692889746</v>
@@ -11076,7 +10926,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.553475438769065</v>
+        <v>1.546419723820032</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.023397338650801</v>
@@ -11165,7 +11015,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.532493186904525</v>
+        <v>1.520793811846486</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.002196223782538</v>
@@ -11254,7 +11104,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.537404884136459</v>
+        <v>1.521439759786572</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.023458317602043</v>
@@ -11343,7 +11193,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.508789493914187</v>
+        <v>1.494689159149439</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.017683107401726</v>
@@ -11432,7 +11282,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.478787180680325</v>
+        <v>1.46997270267212</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.002638563512537</v>
@@ -11521,7 +11371,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.476433855277428</v>
+        <v>1.471238585882722</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.017863926044579</v>
@@ -11610,7 +11460,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.457734730833361</v>
+        <v>1.453662517385752</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.921560600932471</v>
@@ -11699,7 +11549,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.499731711755523</v>
+        <v>1.487579536307878</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.024190922152429</v>
@@ -11788,7 +11638,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.568170510237545</v>
+        <v>1.548199446434377</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.288448294958704</v>
@@ -11877,7 +11727,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.507625176207806</v>
+        <v>1.486435216982064</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.098419029786542</v>
@@ -12163,7 +12013,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474574978933842</v>
+        <v>1.455602541698561</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.246461918433142</v>
@@ -12252,7 +12102,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.473620297192718</v>
+        <v>1.449974023994141</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.175227537031496</v>
@@ -12341,7 +12191,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.443384674743454</v>
+        <v>1.417459272602258</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.043736044638195</v>
@@ -12430,7 +12280,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.447584366624253</v>
+        <v>1.421118194222474</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.994744942086238</v>
@@ -12519,7 +12369,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.430515792659298</v>
+        <v>1.402094173103776</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.986139289671254</v>
@@ -12608,7 +12458,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.41744270469362</v>
+        <v>1.390373490696604</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.006221673942435</v>
@@ -12697,7 +12547,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.417995819058049</v>
+        <v>1.389703822809595</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.963387557533671</v>
@@ -12786,7 +12636,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.416589453609995</v>
+        <v>1.384444278888442</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.970740246702968</v>
@@ -12875,7 +12725,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.412844653261202</v>
+        <v>1.375081716733417</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.937413462999788</v>
@@ -12964,7 +12814,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.407028203313235</v>
+        <v>1.368661611648338</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.890657517921902</v>
@@ -13053,7 +12903,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.400186319799739</v>
+        <v>1.351977757294649</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.863895601745088</v>
@@ -13142,7 +12992,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.385596477828237</v>
+        <v>1.343302536679714</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.985808538739995</v>
@@ -13231,7 +13081,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.430847487734578</v>
+        <v>1.402822479196514</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.986776415954149</v>
@@ -13320,7 +13170,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.422672441269079</v>
+        <v>1.395071335634052</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.057902670732025</v>
@@ -13409,7 +13259,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402598828639662</v>
+        <v>1.376750080845247</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.004158127329233</v>
@@ -13498,7 +13348,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.404020788899775</v>
+        <v>1.38450384711635</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.022941017680559</v>
@@ -13587,7 +13437,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.437820504879301</v>
+        <v>1.41596784877965</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.810260921692005</v>
@@ -13676,7 +13526,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.467206292949124</v>
+        <v>1.450017353632185</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.211538152799083</v>
@@ -13765,7 +13615,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.468463815651847</v>
+        <v>1.452810078817752</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.239360089737447</v>
@@ -13854,7 +13704,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.486367107863155</v>
+        <v>1.469795725697262</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.223747983581979</v>
@@ -13943,7 +13793,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.505385218774259</v>
+        <v>1.486709097944816</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.222823507278904</v>
@@ -14032,7 +13882,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511421748132682</v>
+        <v>1.496918129288889</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.207896186892945</v>
@@ -14121,7 +13971,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.509293530128359</v>
+        <v>1.492806636473057</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.215158556556949</v>
@@ -14210,7 +14060,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.50778331338098</v>
+        <v>1.489815362552444</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.227830087803221</v>
@@ -14299,7 +14149,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.507688168282153</v>
+        <v>1.493271796824643</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.25075594868394</v>
@@ -14388,7 +14238,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552009996088156</v>
+        <v>1.53549444943347</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.993270694853981</v>
@@ -14477,7 +14327,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559399609999085</v>
+        <v>1.543386397354024</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.152394457218395</v>
@@ -14566,7 +14416,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540199379852079</v>
+        <v>1.503602273027228</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.250230192955978</v>
@@ -14655,7 +14505,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553409575039932</v>
+        <v>1.523097796836709</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.155977225117834</v>
@@ -14744,7 +14594,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592877620126641</v>
+        <v>1.5515252108166</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.638596999612133</v>
@@ -14833,7 +14683,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586109994312344</v>
+        <v>1.541788905019491</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.88417280515441</v>
@@ -14922,7 +14772,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.58983034644262</v>
+        <v>1.541764596922999</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.65044108107552</v>
@@ -15011,7 +14861,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594161059587698</v>
+        <v>1.545618581517834</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.832841081064716</v>
@@ -15100,7 +14950,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.584400805565882</v>
+        <v>1.538931886518656</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.711211924300931</v>
@@ -15189,7 +15039,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.568264494918594</v>
+        <v>1.528111655304014</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.690281399261882</v>
@@ -15278,7 +15128,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55957451760114</v>
+        <v>1.518949786658351</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.805534176247198</v>
@@ -15367,7 +15217,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.549711409972551</v>
+        <v>1.50608519310233</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.977801467747049</v>
@@ -15456,7 +15306,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.524323391973495</v>
+        <v>1.49472598298174</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.893342674483093</v>
@@ -15545,7 +15395,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531957230834334</v>
+        <v>1.505001184169183</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.774165950534242</v>
@@ -15634,7 +15484,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.531682018830367</v>
+        <v>1.4925616647604</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.925665726415434</v>
@@ -15723,7 +15573,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.512550679968419</v>
+        <v>1.463425996207558</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.837154139079975</v>
@@ -15812,7 +15662,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.504271856895846</v>
+        <v>1.459828193914693</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.83805174876812</v>
@@ -15901,7 +15751,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.472683882027526</v>
+        <v>1.434756436097939</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.288141365415274</v>
@@ -15990,7 +15840,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.47364834389026</v>
+        <v>1.437452126137707</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.239951004778796</v>
@@ -16079,7 +15929,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.477049264368476</v>
+        <v>1.457059403526895</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.281753280590524</v>
@@ -16168,7 +16018,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.473837530955141</v>
+        <v>1.45228252076408</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.249038161231052</v>
@@ -16257,7 +16107,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475352761129058</v>
+        <v>1.453659865861125</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.300397928941312</v>
@@ -16346,7 +16196,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.471271278412277</v>
+        <v>1.445856600264632</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.270503997604982</v>
@@ -16435,7 +16285,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.457442215299743</v>
+        <v>1.4351126588784</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.200465328809332</v>
@@ -16524,7 +16374,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.465638714845111</v>
+        <v>1.440700118632513</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.246891085087335</v>
@@ -16613,7 +16463,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.46710888831067</v>
+        <v>1.444182912614224</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.25087366009323</v>
@@ -16702,7 +16552,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.469625091652869</v>
+        <v>1.44808684873885</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.200988999158206</v>
@@ -16791,7 +16641,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.485003943314166</v>
+        <v>1.460008501514032</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.239537447625558</v>
@@ -16880,7 +16730,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.476865505107235</v>
+        <v>1.454077051248043</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.28942332205643</v>
@@ -16969,7 +16819,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.473592520836065</v>
+        <v>1.455933329604748</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.234140535457013</v>
@@ -17058,7 +16908,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.488037417070131</v>
+        <v>1.472465822768069</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.120774675780828</v>
@@ -17147,7 +16997,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.495066134265329</v>
+        <v>1.475403076682807</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.219805129006522</v>
@@ -17236,7 +17086,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.537742025457679</v>
+        <v>1.51444628145974</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.128672041271116</v>
@@ -17325,7 +17175,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567116231905476</v>
+        <v>1.533381554524593</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.090435829125042</v>
@@ -17414,7 +17264,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.553873849578377</v>
+        <v>1.506946629939195</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.078424124136206</v>
@@ -17503,7 +17353,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.555513059384573</v>
+        <v>1.512372884651477</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.891159761281154</v>
@@ -17592,7 +17442,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.538510512211516</v>
+        <v>1.504135411038138</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.886477024642053</v>
@@ -17681,7 +17531,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.551011420754639</v>
+        <v>1.519148309003896</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.614649141377154</v>
@@ -17770,7 +17620,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.57576337346856</v>
+        <v>1.535377545466279</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.839981059049209</v>
@@ -17859,7 +17709,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.569765022392635</v>
+        <v>1.524364411757738</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.875437304533535</v>
@@ -17948,7 +17798,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.570147203265345</v>
+        <v>1.520545235153014</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.980155313235836</v>
@@ -18037,7 +17887,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.573350290940068</v>
+        <v>1.514583876848304</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.015924814460305</v>
@@ -18126,7 +17976,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.553563376463423</v>
+        <v>1.486751875489127</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.874651703245893</v>
@@ -18412,7 +18262,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.602543789880209</v>
+        <v>1.575818873371327</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.437108371431179</v>
@@ -18501,7 +18351,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.591243891372291</v>
+        <v>1.565956644616524</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.190635248678197</v>
@@ -18590,7 +18440,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570965340369408</v>
+        <v>1.535971657041872</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.100088526282272</v>
@@ -18679,7 +18529,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587633765884963</v>
+        <v>1.549313955403685</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.084984944717064</v>
@@ -18768,7 +18618,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58251485036401</v>
+        <v>1.542096681506238</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.103799422325741</v>
@@ -18857,7 +18707,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588207607296946</v>
+        <v>1.548458584615319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.127797560062634</v>
@@ -18946,7 +18796,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.595543987427721</v>
+        <v>1.552953895282985</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.119676484043457</v>
@@ -19035,7 +18885,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.589361579093489</v>
+        <v>1.543907677414337</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.084252283216477</v>
@@ -19124,7 +18974,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590186981671732</v>
+        <v>1.539980899101755</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.107684831709059</v>
@@ -19213,7 +19063,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587403208478812</v>
+        <v>1.541883942696998</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.05837138137704</v>
@@ -19302,7 +19152,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.51692433916118</v>
+        <v>1.484113802613832</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.084648718321675</v>
@@ -19391,7 +19241,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503190069480932</v>
+        <v>1.474836031034122</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.064006568237241</v>
@@ -19480,7 +19330,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.53829921838283</v>
+        <v>1.521943229195494</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.215013389719335</v>
@@ -19569,7 +19419,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.523811176194428</v>
+        <v>1.507105581435438</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.164628245798228</v>
@@ -19658,7 +19508,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.51034861256014</v>
+        <v>1.498849546459825</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.172523560587875</v>
@@ -19747,7 +19597,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.524828820027944</v>
+        <v>1.515844585376688</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.210402788806334</v>
@@ -19836,7 +19686,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561302284091121</v>
+        <v>1.547348378005253</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.895344804686337</v>
@@ -19925,7 +19775,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.584253245905188</v>
+        <v>1.572195785620896</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.11817018401819</v>
@@ -20014,7 +19864,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578886462621385</v>
+        <v>1.565462787883679</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.161829333950089</v>
@@ -20103,7 +19953,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580198785229656</v>
+        <v>1.565459767797678</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.139708398286169</v>
@@ -20192,7 +20042,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575739302313158</v>
+        <v>1.559814127922976</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.151563539302236</v>
@@ -20281,7 +20131,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.587802530688451</v>
+        <v>1.56960032322464</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.150442283023917</v>
@@ -20370,7 +20220,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592516012212096</v>
+        <v>1.572548645454396</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.16355886371906</v>
@@ -20459,7 +20309,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590668259758867</v>
+        <v>1.569276687505684</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.115090482587436</v>
@@ -20548,7 +20398,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.591401360928079</v>
+        <v>1.56900263344475</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.192621850723958</v>
@@ -20637,7 +20487,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.677018943357469</v>
+        <v>1.644326750102974</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.277422155205336</v>
@@ -20726,7 +20576,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.687189855782067</v>
+        <v>1.655126585947839</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.209764862087616</v>
@@ -20815,7 +20665,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.647761187655553</v>
+        <v>1.598843015933555</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.575258135719529</v>
@@ -20904,7 +20754,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.676512392555885</v>
+        <v>1.628799380709653</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.685234139336105</v>
@@ -20993,7 +20843,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.708206101485057</v>
+        <v>1.641880012879734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.669157216719467</v>
@@ -21082,7 +20932,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.698133904869604</v>
+        <v>1.63042252836485</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.838220926277757</v>
@@ -21171,7 +21021,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.709153157366773</v>
+        <v>1.636246066001667</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.872707242439331</v>
@@ -21260,7 +21110,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.705425248265336</v>
+        <v>1.639514863018602</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.781153057948387</v>
@@ -21349,7 +21199,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.702995205482728</v>
+        <v>1.635320818046484</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.864626628594375</v>
@@ -21438,7 +21288,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.703504198295008</v>
+        <v>1.632687556999884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.832537015759531</v>
@@ -21527,7 +21377,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699579973509022</v>
+        <v>1.632260224143964</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.745258442108562</v>
@@ -21616,7 +21466,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.688034033972355</v>
+        <v>1.618199915424089</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.739876965657447</v>
@@ -21705,7 +21555,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.68183972060315</v>
+        <v>1.618611996224087</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.78890259551463</v>
@@ -21794,7 +21644,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689525232171491</v>
+        <v>1.622277681017813</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.845278093834469</v>
@@ -21883,7 +21733,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688275159476002</v>
+        <v>1.614735682085335</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.87143425940161</v>
@@ -21972,7 +21822,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.676628249477434</v>
+        <v>1.601748800000703</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.739516071992526</v>
@@ -22061,7 +21911,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.677417538770196</v>
+        <v>1.596549668722962</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.824523084897737</v>
@@ -22150,7 +22000,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.712696796186348</v>
+        <v>1.616018373739201</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.191730455690006</v>
@@ -22239,7 +22089,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.721356362675025</v>
+        <v>1.619798593027068</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.355801695514332</v>
@@ -22328,7 +22178,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.682190559483306</v>
+        <v>1.601596494662743</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.315245254911715</v>
@@ -22417,7 +22267,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.696673990938952</v>
+        <v>1.614659035492287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.370169774764955</v>
@@ -22506,7 +22356,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.693786057679781</v>
+        <v>1.615801117851141</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.27525359375581</v>
@@ -22595,7 +22445,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.698286866895259</v>
+        <v>1.618693790553502</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.392544167267906</v>
@@ -22684,7 +22534,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.696543216486732</v>
+        <v>1.614614940243537</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.337058574865932</v>
@@ -22773,7 +22623,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.706337346019742</v>
+        <v>1.62884377259751</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.403060367932357</v>
@@ -22862,7 +22712,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.707198397906444</v>
+        <v>1.631600096202472</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.395317660885751</v>
@@ -22951,7 +22801,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.699593769902803</v>
+        <v>1.626358354034189</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.353556307683836</v>
@@ -23040,7 +22890,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.696554985175835</v>
+        <v>1.61581065065417</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.361716708673156</v>
@@ -23129,7 +22979,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.694007276212075</v>
+        <v>1.616769113113533</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.404585127490208</v>
@@ -23218,7 +23068,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.696966934265177</v>
+        <v>1.622327571790754</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.321372895349721</v>
@@ -23307,7 +23157,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.709873537070789</v>
+        <v>1.630774146368816</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.414589355225347</v>
@@ -23396,7 +23246,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.704049535417988</v>
+        <v>1.627970829042473</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.300715995752259</v>
@@ -23485,7 +23335,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.705356940897756</v>
+        <v>1.637691704883458</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.270546111533164</v>
@@ -23574,7 +23424,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.728380163878449</v>
+        <v>1.654310141913103</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.318026394370114</v>
@@ -23663,7 +23513,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.752408411831167</v>
+        <v>1.667552160480845</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.520982871142117</v>
@@ -23752,7 +23602,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.74766597090589</v>
+        <v>1.662427963011738</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.874513732286151</v>
@@ -23841,7 +23691,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.755075202124874</v>
+        <v>1.671835878435209</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.951279397438908</v>
@@ -23930,7 +23780,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.746073857383678</v>
+        <v>1.663160366505402</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.518157434545914</v>
@@ -24019,7 +23869,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.754717063121943</v>
+        <v>1.667216613286671</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.948392844421168</v>
@@ -24108,7 +23958,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.736311175278556</v>
+        <v>1.642141506968424</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.479232066667032</v>
@@ -24197,7 +24047,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.729375198033909</v>
+        <v>1.63051058558049</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.605009125850783</v>
@@ -24286,7 +24136,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.73052127003926</v>
+        <v>1.631339178829548</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.106900638861108</v>
@@ -24375,7 +24225,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.738002921819525</v>
+        <v>1.647224510609832</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.328265873628509</v>
@@ -24661,7 +24511,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.538706019328679</v>
+        <v>1.526878830367806</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.065046470770417</v>
@@ -24750,7 +24600,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.556179947084915</v>
+        <v>1.545577203280288</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.021689559199309</v>
@@ -24839,7 +24689,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580364556431078</v>
+        <v>1.568290526349937</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.353379717840427</v>
@@ -24928,7 +24778,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610302658114953</v>
+        <v>1.595832141352145</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.303263959186344</v>
@@ -25017,7 +24867,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.624396057635672</v>
+        <v>1.613319189367708</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.285751091968824</v>
@@ -25106,7 +24956,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.63539364074238</v>
+        <v>1.626558499833744</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.380132761914128</v>
@@ -25195,7 +25045,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.675985149244618</v>
+        <v>1.664492593663502</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.352847716787169</v>
@@ -25284,7 +25134,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.698746196760963</v>
+        <v>1.687770852907194</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.299425293528162</v>
@@ -25373,7 +25223,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.701977842615657</v>
+        <v>1.6885629731482</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.339251793689635</v>
@@ -25462,7 +25312,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.701482364084041</v>
+        <v>1.689887521111821</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.268271858028751</v>
@@ -25551,7 +25401,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654663808354657</v>
+        <v>1.651964849883059</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.368749286695585</v>
@@ -25640,7 +25490,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.661390880547019</v>
+        <v>1.660657617875305</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.419949698167913</v>
@@ -25729,7 +25579,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.677905038374863</v>
+        <v>1.695210066897808</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.462772643806241</v>
@@ -25818,7 +25668,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.675536396226194</v>
+        <v>1.69534540170108</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.562551849139419</v>
@@ -25907,7 +25757,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677484507289946</v>
+        <v>1.701357909635244</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.487369764073144</v>
@@ -25996,7 +25846,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.694967415904238</v>
+        <v>1.722035382103331</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.562302574362948</v>
@@ -26085,7 +25935,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.720142984663644</v>
+        <v>1.738997906568856</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.077396179322657</v>
@@ -26174,7 +26024,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.724317039079976</v>
+        <v>1.740383848134698</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.499458376207111</v>
@@ -26263,7 +26113,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717621585035457</v>
+        <v>1.729033890980591</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.454264962622858</v>
@@ -26352,7 +26202,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715170457073285</v>
+        <v>1.720513193179813</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.484318968322011</v>
@@ -26441,7 +26291,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.710580103630897</v>
+        <v>1.712589535731102</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.396392743662191</v>
@@ -26530,7 +26380,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.70166400459978</v>
+        <v>1.696814509120441</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.479291285135983</v>
@@ -26619,7 +26469,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.697878258318397</v>
+        <v>1.691048890329036</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.423607992856577</v>
@@ -26708,7 +26558,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.700843335057267</v>
+        <v>1.695346725634584</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.468989070637636</v>
@@ -26797,7 +26647,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.698848720950593</v>
+        <v>1.693893323450027</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.360496561674204</v>
@@ -26886,7 +26736,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.751549706026255</v>
+        <v>1.739348715995446</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.380746830891259</v>
@@ -26975,7 +26825,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.753902887403127</v>
+        <v>1.735393420027107</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.302696317432969</v>
@@ -27064,7 +26914,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.74301522748947</v>
+        <v>1.698860901226526</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.742421206787035</v>
@@ -27153,7 +27003,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.749252139310471</v>
+        <v>1.704655474990473</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.28722093669227</v>
@@ -27242,7 +27092,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.763030900716488</v>
+        <v>1.708613386078861</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.975937183407409</v>
@@ -27331,7 +27181,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.752739390057185</v>
+        <v>1.694094004313232</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.06648497922119</v>
@@ -27420,7 +27270,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.745235272681058</v>
+        <v>1.687347511077804</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.156779390873919</v>
@@ -27509,7 +27359,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74766947643977</v>
+        <v>1.692298545409796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.050815943832243</v>
@@ -27598,7 +27448,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.744174630848686</v>
+        <v>1.690538395489872</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.114058292749523</v>
@@ -27687,7 +27537,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.745023742703074</v>
+        <v>1.694661518268068</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.046179992249102</v>
@@ -27776,7 +27626,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.743612581162872</v>
+        <v>1.694006440467954</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.079529174107836</v>
@@ -27865,7 +27715,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.734736143888898</v>
+        <v>1.679253548817568</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.042519126917681</v>
@@ -27954,7 +27804,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.728631183680277</v>
+        <v>1.676073774349617</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.186295666211338</v>
@@ -28043,7 +27893,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.731140329951439</v>
+        <v>1.677753699155127</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.17568497984549</v>
@@ -28132,7 +27982,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.73798090953852</v>
+        <v>1.678432053572916</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.001993396270039</v>
@@ -28221,7 +28071,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.734455510519834</v>
+        <v>1.676199325165607</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.934487333445843</v>
@@ -28310,7 +28160,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.74238005591242</v>
+        <v>1.688884801239311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.101735755258687</v>
@@ -28399,7 +28249,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.747767550015265</v>
+        <v>1.686543453636206</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.922713501498829</v>
@@ -28488,7 +28338,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.772626900400625</v>
+        <v>1.719611416062212</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.349027866216077</v>
@@ -28577,7 +28427,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.739511087128682</v>
+        <v>1.704481127767147</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.356453908813084</v>
@@ -28666,7 +28516,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.738040725906417</v>
+        <v>1.703549371222366</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.415127927185955</v>
@@ -28755,7 +28605,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.737822531108399</v>
+        <v>1.707478544563255</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.403992993140915</v>
@@ -28844,7 +28694,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.737041035905369</v>
+        <v>1.708201238705225</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.30431094209957</v>
@@ -28933,7 +28783,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734608195982184</v>
+        <v>1.705116957186003</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.355303925883959</v>
@@ -29022,7 +28872,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.738607115174622</v>
+        <v>1.709237602881211</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.385126942961932</v>
@@ -29111,7 +28961,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.740003218100361</v>
+        <v>1.714557473761533</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.425764751784572</v>
@@ -29200,7 +29050,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.743166254068253</v>
+        <v>1.724928382448534</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.425356190051869</v>
@@ -29289,7 +29139,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.742391321075242</v>
+        <v>1.725811714850782</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.442588068916307</v>
@@ -29378,7 +29228,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.736565734477933</v>
+        <v>1.720076525408429</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.406146342651703</v>
@@ -29467,7 +29317,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.740056825315024</v>
+        <v>1.725529956458708</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.447792089476204</v>
@@ -29556,7 +29406,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.747806502143348</v>
+        <v>1.721544474438717</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.36269212837025</v>
@@ -29645,7 +29495,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.737002352256889</v>
+        <v>1.713728247249819</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.395750812782443</v>
@@ -29734,7 +29584,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.7451024470196</v>
+        <v>1.724854223215481</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.28613088538396</v>
@@ -29823,7 +29673,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.73813298142186</v>
+        <v>1.70315952618332</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.384718526831655</v>
@@ -29912,7 +29762,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.758575395345735</v>
+        <v>1.708103999547312</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.756576933072896</v>
@@ -30001,7 +29851,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.755135850558184</v>
+        <v>1.707711245626868</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.515005982811801</v>
@@ -30090,7 +29940,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.757978129406426</v>
+        <v>1.710914855437712</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.909088176704372</v>
@@ -30179,7 +30029,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.765291807477441</v>
+        <v>1.718300588130034</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.658153138628448</v>
@@ -30268,7 +30118,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.7630745428386</v>
+        <v>1.720494518865851</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.122752685064811</v>
@@ -30357,7 +30207,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.752538658434345</v>
+        <v>1.712491479538221</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.378479731782383</v>
@@ -30446,7 +30296,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.755625253131369</v>
+        <v>1.710172178692209</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.019520140266202</v>
@@ -30535,7 +30385,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.750687066023126</v>
+        <v>1.705106823921303</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.700563198332253</v>
@@ -30624,7 +30474,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.751854255074128</v>
+        <v>1.707617953744531</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.453112898098875</v>
@@ -30910,7 +30760,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490793291432092</v>
+        <v>1.473292355968851</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.870098928202182</v>
@@ -30999,7 +30849,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.45274820413414</v>
+        <v>1.424381995675895</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.675503393036877</v>
@@ -31088,7 +30938,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.340785319109787</v>
+        <v>1.322889257835208</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.708427243672936</v>
@@ -31177,7 +31027,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.336460919038096</v>
+        <v>1.319434088263717</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.700565820263023</v>
@@ -31266,7 +31116,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.304368915970477</v>
+        <v>1.287134681924044</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.696800169913489</v>
@@ -31355,7 +31205,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.296172959585613</v>
+        <v>1.278563238818358</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.707450104800201</v>
@@ -31444,7 +31294,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.288765558553739</v>
+        <v>1.270198375880391</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.689714802835853</v>
@@ -31533,7 +31383,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.28827403470859</v>
+        <v>1.270362065089697</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.698264958714051</v>
@@ -31622,7 +31472,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.285420674086873</v>
+        <v>1.266613925472548</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.680807149502362</v>
@@ -31711,7 +31561,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.272942871325443</v>
+        <v>1.25402807562455</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.678465676783546</v>
@@ -31800,7 +31650,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.255552603620762</v>
+        <v>1.23045805138167</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.722029108573784</v>
@@ -31889,7 +31739,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.238242325782926</v>
+        <v>1.21885702925361</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.688082997893396</v>
@@ -31978,7 +31828,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.321032342390403</v>
+        <v>1.321431202691248</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.815981146178034</v>
@@ -32067,7 +31917,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.313557901491807</v>
+        <v>1.308391934444172</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.809441069278944</v>
@@ -32156,7 +32006,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.301234527198196</v>
+        <v>1.295582429626916</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.810671966215908</v>
@@ -32245,7 +32095,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.316456243663258</v>
+        <v>1.318334001572883</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.810731538483621</v>
@@ -32334,7 +32184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.373732992858222</v>
+        <v>1.379019766661372</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.648752936933078</v>
@@ -32423,7 +32273,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.421402444452104</v>
+        <v>1.435320500123972</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.066482456887895</v>
@@ -32512,7 +32362,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.422355638320856</v>
+        <v>1.43320107149283</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.067719776062669</v>
@@ -32601,7 +32451,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.454214977033267</v>
+        <v>1.468282642565238</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.03342754664787</v>
@@ -32690,7 +32540,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.473806029878629</v>
+        <v>1.48873917999271</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.08762531745118</v>
@@ -32779,7 +32629,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.468055978279956</v>
+        <v>1.485727713451694</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.044336473289463</v>
@@ -32868,7 +32718,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.467342696947936</v>
+        <v>1.482053929509324</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.054798963327416</v>
@@ -32957,7 +32807,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.463402140529807</v>
+        <v>1.477620798140381</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.022574134889009</v>
@@ -33046,7 +32896,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.47169215331234</v>
+        <v>1.485405643862682</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.009328547736452</v>
@@ -33135,7 +32985,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.557509151682279</v>
+        <v>1.567408558547372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.951967032248921</v>
@@ -33224,7 +33074,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583394601571778</v>
+        <v>1.591085247278843</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.057123926259475</v>
@@ -33313,7 +33163,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.464678931764936</v>
+        <v>1.450361901968306</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.071538921541798</v>
@@ -33402,7 +33252,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.511789157859872</v>
+        <v>1.503379171673221</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.826218679695194</v>
@@ -33491,7 +33341,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584571346982937</v>
+        <v>1.566581618371243</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.007578678525801</v>
@@ -33580,7 +33430,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55703896909814</v>
+        <v>1.539402914753244</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.189036111610676</v>
@@ -33669,7 +33519,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.567968391667801</v>
+        <v>1.546593133741604</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.247469351358065</v>
@@ -33758,7 +33608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567288251132695</v>
+        <v>1.547925610783174</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.183564739009346</v>
@@ -33847,7 +33697,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562408357904936</v>
+        <v>1.546954913990518</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.14617514551942</v>
@@ -33936,7 +33786,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543349359811546</v>
+        <v>1.523409643381785</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.150465214325459</v>
@@ -34025,7 +33875,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.545403092167986</v>
+        <v>1.519365884598911</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.080762104232587</v>
@@ -34114,7 +33964,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.555990413391662</v>
+        <v>1.524482738995865</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.065908928403382</v>
@@ -34203,7 +34053,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541449289700814</v>
+        <v>1.513447892108077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.074307844131733</v>
@@ -34292,7 +34142,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55387830455107</v>
+        <v>1.530101545912246</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.14908841425383</v>
@@ -34381,7 +34231,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.559877534856822</v>
+        <v>1.529079414451695</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.096595157908727</v>
@@ -34470,7 +34320,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.526444112096374</v>
+        <v>1.489684425188117</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.17044666243825</v>
@@ -34559,7 +34409,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.511184127284175</v>
+        <v>1.487908272429813</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.184558398307813</v>
@@ -34648,7 +34498,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.527758460625709</v>
+        <v>1.498676334428673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.148752964056417</v>
@@ -34737,7 +34587,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56222566957797</v>
+        <v>1.54469768866201</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.269964882867101</v>
@@ -34826,7 +34676,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.566628950078389</v>
+        <v>1.554429437257939</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.3912394845253</v>
@@ -34915,7 +34765,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581746725547354</v>
+        <v>1.569437711431797</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.340690486901966</v>
@@ -35004,7 +34854,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.578380228009771</v>
+        <v>1.569157848832415</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.402732552546187</v>
@@ -35093,7 +34943,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.586514403578693</v>
+        <v>1.57515623632418</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.393060810756182</v>
@@ -35182,7 +35032,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.587492100249523</v>
+        <v>1.570027818698265</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.319675314589499</v>
@@ -35271,7 +35121,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.602892260282289</v>
+        <v>1.587185370555187</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.366946740541324</v>
@@ -35360,7 +35210,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.601834187758708</v>
+        <v>1.592359748647484</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.465089733627801</v>
@@ -35449,7 +35299,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.598873489663616</v>
+        <v>1.591888052534659</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.472434734175288</v>
@@ -35538,7 +35388,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.61743647951045</v>
+        <v>1.608022644212324</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.384549680541692</v>
@@ -35627,7 +35477,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61854182085051</v>
+        <v>1.606953705426471</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.315312163942349</v>
@@ -35716,7 +35566,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616874984232692</v>
+        <v>1.604543279838467</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.439495714804881</v>
@@ -35805,7 +35655,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.665028243469255</v>
+        <v>1.651542233202321</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.421270242890253</v>
@@ -35894,7 +35744,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.662472927001358</v>
+        <v>1.644255197786856</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.376847110609136</v>
@@ -35983,7 +35833,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.697681244897027</v>
+        <v>1.676015313631682</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.37831564512196</v>
@@ -36072,7 +35922,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.712988129469455</v>
+        <v>1.675826584281066</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.079193168447525</v>
@@ -36161,7 +36011,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.698395484630951</v>
+        <v>1.642020782445484</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.369282713812404</v>
@@ -36250,7 +36100,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.713263766345471</v>
+        <v>1.657069915454633</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.53090849157946</v>
@@ -36339,7 +36189,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.703330555288761</v>
+        <v>1.65274165466107</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.344032027162687</v>
@@ -36428,7 +36278,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.698108878840485</v>
+        <v>1.650503575238553</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.352036682553731</v>
@@ -36517,7 +36367,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.705691520785278</v>
+        <v>1.665028736648891</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.338935970839052</v>
@@ -36606,7 +36456,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.681067829693977</v>
+        <v>1.641427202417817</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.170450503882719</v>
@@ -36695,7 +36545,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.671094105303951</v>
+        <v>1.622778287973009</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.217821074086097</v>
@@ -36784,7 +36634,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.675236016210748</v>
+        <v>1.61740713479662</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.097046021257648</v>
@@ -36873,7 +36723,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.651746572415571</v>
+        <v>1.596321756995012</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.556485790933454</v>
@@ -37159,7 +37009,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.391358755336858</v>
+        <v>1.398973725697518</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.207167176360747</v>
@@ -37248,7 +37098,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.399201390770525</v>
+        <v>1.396805237841651</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.217578960056051</v>
@@ -37337,7 +37187,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.424748721425019</v>
+        <v>1.405000973159245</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.235557891577968</v>
@@ -37426,7 +37276,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.448514838924071</v>
+        <v>1.433683832088592</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.213312009838302</v>
@@ -37515,7 +37365,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.453080581940563</v>
+        <v>1.440416525919662</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.352006624528372</v>
@@ -37604,7 +37454,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.472912833744342</v>
+        <v>1.458647802523529</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.387698668562989</v>
@@ -37693,7 +37543,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494562985084551</v>
+        <v>1.485339460688934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.41810071270172</v>
@@ -37782,7 +37632,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508357621271501</v>
+        <v>1.50126798837943</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.407053964206038</v>
@@ -37871,7 +37721,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.521406214229633</v>
+        <v>1.514261885440759</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.450111533365317</v>
@@ -37960,7 +37810,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524522418646123</v>
+        <v>1.519809752529601</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.435704077656606</v>
@@ -38049,7 +37899,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.444695948979889</v>
+        <v>1.437849408123252</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.009215064168964</v>
@@ -38138,7 +37988,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.445889024543213</v>
+        <v>1.43973195920659</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.009717823831313</v>
@@ -38227,7 +38077,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.454240188381676</v>
+        <v>1.451476982685171</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.049027566820504</v>
@@ -38316,7 +38166,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.458441913373709</v>
+        <v>1.453509184650701</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.052633090807026</v>
@@ -38405,7 +38255,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.455286851222725</v>
+        <v>1.449452168728107</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.01427219474654</v>
@@ -38494,7 +38344,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484797294239329</v>
+        <v>1.4853172591055</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.074521222854492</v>
@@ -38583,7 +38433,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503346669833769</v>
+        <v>1.506062798547068</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.991501872970745</v>
@@ -38672,7 +38522,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.511949740712761</v>
+        <v>1.5271961287047</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.961003010775248</v>
@@ -38761,7 +38611,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506415243706503</v>
+        <v>1.515650210830517</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.961160014820643</v>
@@ -38850,7 +38700,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.508601804808358</v>
+        <v>1.518158843360306</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.972828993084594</v>
@@ -38939,7 +38789,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.511035947385997</v>
+        <v>1.523038551113564</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.968685899697252</v>
@@ -39028,7 +38878,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.485855351051321</v>
+        <v>1.495774719841925</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.939349312358847</v>
@@ -39117,7 +38967,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.48409552145411</v>
+        <v>1.493515766718678</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.936934657126541</v>
@@ -39206,7 +39056,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.488116341099261</v>
+        <v>1.495827916329794</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.914594614669587</v>
@@ -39295,7 +39145,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.508263702106766</v>
+        <v>1.512130945655628</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.927550829215434</v>
@@ -39384,7 +39234,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657017878507232</v>
+        <v>1.662844533764825</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.202564741268566</v>
@@ -39473,7 +39323,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662909262034957</v>
+        <v>1.669007849613985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.304198106123291</v>
@@ -39562,7 +39412,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.591544835333597</v>
+        <v>1.579060732725994</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.22239118905887</v>
@@ -39651,7 +39501,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.570377186799861</v>
+        <v>1.578923389084587</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.936962386067406</v>
@@ -39740,7 +39590,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619955159020858</v>
+        <v>1.626103177171654</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.912904940182762</v>
@@ -39829,7 +39679,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573691686942653</v>
+        <v>1.583028309302736</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.168826453211787</v>
@@ -39918,7 +39768,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.566655962264627</v>
+        <v>1.576535845915024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.145902397639393</v>
@@ -40007,7 +39857,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563390907584296</v>
+        <v>1.574272481608368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.148743683142952</v>
@@ -40096,7 +39946,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.553670783550595</v>
+        <v>1.562448721071847</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.109917738172848</v>
@@ -40185,7 +40035,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.558683297109676</v>
+        <v>1.567808488740807</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.145316572960158</v>
@@ -40274,7 +40124,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556287278694074</v>
+        <v>1.563495112511918</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.105622930880856</v>
@@ -40363,7 +40213,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573939178345517</v>
+        <v>1.575257552764922</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.125321686646697</v>
@@ -40452,7 +40302,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.5326305785826</v>
+        <v>1.536771612841558</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.145097707919585</v>
@@ -40541,7 +40391,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.537092124530269</v>
+        <v>1.543504612537015</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.125386418757723</v>
@@ -40630,7 +40480,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.530368517126289</v>
+        <v>1.536845912895955</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.132072287469968</v>
@@ -40719,7 +40569,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494629769238671</v>
+        <v>1.493670236919206</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.174182934688333</v>
@@ -40808,7 +40658,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488809926147904</v>
+        <v>1.48917133919678</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.162956586599813</v>
@@ -40897,7 +40747,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563072930957774</v>
+        <v>1.566720839613423</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.21141249102022</v>
@@ -40986,7 +40836,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.595218162304204</v>
+        <v>1.599446791580946</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.216575331148056</v>
@@ -41075,7 +40925,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588398827776267</v>
+        <v>1.590731652302393</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.323623425085486</v>
@@ -41164,7 +41014,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622383184268742</v>
+        <v>1.62363330616359</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.24299884154978</v>
@@ -41253,7 +41103,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.624743178177211</v>
+        <v>1.6282871327292</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.160941490470395</v>
@@ -41342,7 +41192,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.628299110988075</v>
+        <v>1.632493933601302</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.152589610751583</v>
@@ -41431,7 +41281,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.648905431019053</v>
+        <v>1.653797211660293</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.148713783923762</v>
@@ -41520,7 +41370,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.651391018889536</v>
+        <v>1.659686082522437</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.17721744717771</v>
@@ -41609,7 +41459,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.651244156533652</v>
+        <v>1.662644738855202</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.210238541681939</v>
@@ -41698,7 +41548,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.657178980266035</v>
+        <v>1.668036780759495</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.315781980895297</v>
@@ -41787,7 +41637,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.701243827014691</v>
+        <v>1.711268996120363</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.20007771993961</v>
@@ -41876,7 +41726,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.692205597056729</v>
+        <v>1.701281526588673</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.1910644916986</v>
@@ -41965,7 +41815,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.701736172959422</v>
+        <v>1.709126183287967</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.101645276499779</v>
@@ -42054,7 +41904,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.785999141702673</v>
+        <v>1.800767012871745</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.502287884792075</v>
@@ -42143,7 +41993,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.810274721913706</v>
+        <v>1.822436000144569</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.403262497443473</v>
@@ -42232,7 +42082,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.833389324856467</v>
+        <v>1.847802236328409</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.023478261160498</v>
@@ -42321,7 +42171,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.82357256495729</v>
+        <v>1.834457682772025</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.361995749691414</v>
@@ -42410,7 +42260,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.80172479354761</v>
+        <v>1.818619411766888</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.397402615799458</v>
@@ -42499,7 +42349,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.817289213307076</v>
+        <v>1.831378027689182</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.239023702540528</v>
@@ -42588,7 +42438,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.796131605897106</v>
+        <v>1.812280133509177</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.056394965968839</v>
@@ -42677,7 +42527,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.776051551555822</v>
+        <v>1.799506813916465</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.112818646143825</v>
@@ -42766,7 +42616,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.788970377082894</v>
+        <v>1.814841582425981</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.000883053255539</v>
@@ -42855,7 +42705,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.766733319112416</v>
+        <v>1.794048680085694</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.258648638329216</v>
@@ -42944,7 +42794,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.766735573452526</v>
+        <v>1.790638531859309</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.986418150740539</v>
@@ -43033,7 +42883,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.775200592566402</v>
+        <v>1.798354560265458</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.286702643002537</v>
@@ -43122,7 +42972,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.729936637504333</v>
+        <v>1.752719569931189</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.930023257131599</v>
